--- a/data/trans_bre/P9_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,46</t>
+          <t>4,56; 11,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,31</t>
+          <t>8,39; 16,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 18,23</t>
+          <t>9,74; 18,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 19,53</t>
+          <t>10,14; 19,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 83,63</t>
+          <t>26,13; 80,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 78,06</t>
+          <t>33,4; 77,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,14; 98,13</t>
+          <t>43,09; 100,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 78,98</t>
+          <t>33,18; 76,06</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,06</t>
+          <t>2,3; 6,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,16</t>
+          <t>3,35; 7,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,14</t>
+          <t>3,37; 7,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,93</t>
+          <t>0,26; 4,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,3; 140,75</t>
+          <t>37,98; 140,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 129,35</t>
+          <t>48,3; 128,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 128,23</t>
+          <t>47,36; 127,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 50,31</t>
+          <t>2,43; 51,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,37</t>
+          <t>0,84; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 5,68</t>
+          <t>-2,07; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,38</t>
+          <t>0,73; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,25</t>
+          <t>-1,39; 4,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 252,38</t>
+          <t>13,49; 238,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 146,01</t>
+          <t>-28,65; 128,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 211,99</t>
+          <t>11,05; 207,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 70,7</t>
+          <t>-15,47; 67,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,12</t>
+          <t>4,79; 8,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,72</t>
+          <t>7,12; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,13</t>
+          <t>6,63; 10,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,89</t>
+          <t>4,13; 7,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,91; 108,45</t>
+          <t>53,75; 106,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,08; 107,28</t>
+          <t>60,15; 105,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,28; 118,83</t>
+          <t>65,81; 117,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,06; 65,78</t>
+          <t>29,97; 66,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P9_2_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,12</t>
+          <t>4,4; 11,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 16,14</t>
+          <t>8,42; 16,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,74; 18,54</t>
+          <t>10,28; 18,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,13; 80,33</t>
+          <t>25,84; 79,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 77,49</t>
+          <t>33,08; 77,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,09; 100,6</t>
+          <t>44,09; 101,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,12</t>
+          <t>2,33; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,04</t>
+          <t>3,22; 7,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,11</t>
+          <t>3,43; 7,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,98; 140,96</t>
+          <t>39,39; 140,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,3; 128,57</t>
+          <t>45,6; 129,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,36; 127,73</t>
+          <t>49,52; 127,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,91</t>
+          <t>1,01; 7,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 5,22</t>
+          <t>-1,63; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,51</t>
+          <t>0,44; 7,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 238,69</t>
+          <t>13,31; 238,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 128,61</t>
+          <t>-24,13; 144,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 207,88</t>
+          <t>5,97; 213,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,02</t>
+          <t>4,96; 7,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,7</t>
+          <t>7,08; 10,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,18</t>
+          <t>6,71; 10,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,75; 106,62</t>
+          <t>56,03; 105,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,15; 105,75</t>
+          <t>59,46; 104,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,81; 117,8</t>
+          <t>65,21; 118,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
